--- a/tests/test_input/test_metadata.xlsx
+++ b/tests/test_input/test_metadata.xlsx
@@ -615,62 +615,62 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Definition</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Property URI</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Controlled vocabluary (if applicable)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Usage note</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Range</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Cardinality</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Definition</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Usage note</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>SHACL_dash:viewer</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SHACL_dash:editor</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>SHACL_sh:node</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>SHACL_sh:uniqueLang</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>SHACL_pattern</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Controlled vocabluary (if applicable)</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>SHACL_sh:uniqueLang</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>SHACL_default_value</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>SHACL_dash:viewer</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>SHACL_dash:editor</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
@@ -697,30 +697,46 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>The title</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>dct:title</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>xsd:string</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Provide a unique title</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>rdfs:Literal</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>1..n</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>The title</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>dash:LiteralViewer</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>dash:TextFieldEditor</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
@@ -747,30 +763,46 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>The description</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>dct:description</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Provide a brief description</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>rdfs:Literal</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>1..n</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>The description</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>dash:LiteralViewer</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>dash:TextFieldEditor</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">

--- a/tests/test_input/test_metadata.xlsx
+++ b/tests/test_input/test_metadata.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,6 +492,30 @@
       <c r="B5" t="inlineStr">
         <is>
           <t>http://example.com/custom#</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>dash</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>http://datashapes.org/dash#</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sh</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/ns/shacl#</t>
         </is>
       </c>
     </row>
